--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s89629/Projects/wind/the-proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E85E3FC-4BB9-654D-9BF8-49569BEC1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E615E1-F5E8-A145-B5DA-4D07C1CD9178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{A5AFA8C1-F24A-2D4F-9081-022B6ECC5F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>iOS Android</t>
   </si>
@@ -138,16 +138,29 @@
   </si>
   <si>
     <t>Android Annual</t>
+  </si>
+  <si>
+    <t>No user/password for customer in goodtill API</t>
+  </si>
+  <si>
+    <t>No API ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,107 +510,128 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>15</v>
       </c>
@@ -604,12 +639,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>17</v>
       </c>
@@ -617,31 +652,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="J22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>20</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>21</v>
       </c>
@@ -649,33 +693,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>23</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>24</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>26</v>
       </c>
@@ -683,20 +733,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>28</v>
       </c>
@@ -715,22 +768,22 @@
       </c>
       <c r="J34">
         <f>SUM(J9:J33)</f>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>5600</v>
       </c>
       <c r="L34">
         <f>J34*K34</f>
-        <v>408800</v>
-      </c>
-    </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.2">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>31</v>
       </c>
       <c r="J35">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.2">
@@ -751,7 +804,7 @@
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.2">
       <c r="M38">
-        <v>20000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
